--- a/GranBlueFantasy_And_OtherCygame_Support_Dll/package/LangMod/CN/Dialog/Drama/Cidala.xlsx
+++ b/GranBlueFantasy_And_OtherCygame_Support_Dll/package/LangMod/CN/Dialog/Drama/Cidala.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="299">
   <si>
     <t>step</t>
   </si>
@@ -374,10 +374,10 @@
     <t>Z_134853686_p0</t>
   </si>
   <si>
-    <t>setFlag</t>
-  </si>
-  <si>
-    <t>cm1start1,1</t>
+    <t>mod_flag(cm1start1,=1)</t>
+  </si>
+  <si>
+    <t>pc</t>
   </si>
   <si>
     <t>portrait_set(Cidala_Bai_None)</t>
@@ -395,9 +395,6 @@
     <t>欸......到底在哪呢？</t>
   </si>
   <si>
-    <t>pc</t>
-  </si>
-  <si>
     <t>どうしたの？白ちゃん、何か探してるの？</t>
   </si>
   <si>
@@ -656,10 +653,10 @@
     <t>cidaladojin2</t>
   </si>
   <si>
-    <t>cm1start3,1</t>
-  </si>
-  <si>
-    <t>cm1end1,1</t>
+    <t>mod_flag(cm1start3,=1)</t>
+  </si>
+  <si>
+    <t>mod_flag(cm1end1,=1)</t>
   </si>
   <si>
     <t>mod_affinity(200)</t>
@@ -1907,9 +1904,9 @@
   <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="$A60:$XFD60"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5"/>
@@ -2609,11 +2606,14 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="5:6">
+    <row r="74" spans="5:7">
       <c r="E74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="G74" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2647,19 +2647,19 @@
     </row>
     <row r="77" ht="17.25" spans="7:12">
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I77" s="2">
         <v>33</v>
       </c>
       <c r="J77" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K77" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="L77" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="78" spans="5:7">
@@ -2667,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>118</v>
@@ -2682,13 +2682,13 @@
         <v>34</v>
       </c>
       <c r="J79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K79" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="L79" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -2696,7 +2696,7 @@
         <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>118</v>
@@ -2711,13 +2711,13 @@
         <v>35</v>
       </c>
       <c r="J81" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K81" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -2725,7 +2725,7 @@
         <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>118</v>
@@ -2739,30 +2739,30 @@
         <v>36</v>
       </c>
       <c r="J83" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K83" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="L83" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="7:12">
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I84" s="2">
         <v>37</v>
       </c>
       <c r="J84" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K84" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="L84" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="85" spans="5:7">
@@ -2770,7 +2770,7 @@
         <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>118</v>
@@ -2784,30 +2784,30 @@
         <v>38</v>
       </c>
       <c r="J86" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K86" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="L86" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="87" ht="17.25" spans="7:12">
       <c r="G87" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I87" s="2">
         <v>39</v>
       </c>
       <c r="J87" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K87" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="L87" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -2815,7 +2815,7 @@
         <v>51</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>118</v>
@@ -2829,30 +2829,30 @@
         <v>41</v>
       </c>
       <c r="J89" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K89" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="L89" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="90" ht="17.25" spans="7:12">
       <c r="G90" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I90" s="2">
         <v>42</v>
       </c>
       <c r="J90" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K90" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="L90" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="91" spans="5:7">
@@ -2860,7 +2860,7 @@
         <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>118</v>
@@ -2875,13 +2875,13 @@
         <v>43</v>
       </c>
       <c r="J92" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="L92" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="93" spans="5:7">
@@ -2889,7 +2889,7 @@
         <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>118</v>
@@ -2903,30 +2903,30 @@
         <v>44</v>
       </c>
       <c r="J94" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K94" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="L94" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="95" ht="17.25" spans="7:12">
       <c r="G95" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I95" s="2">
         <v>45</v>
       </c>
       <c r="J95" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K95" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="L95" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="96" spans="5:6">
@@ -2934,12 +2934,12 @@
         <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="2:12">
       <c r="B98" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>19</v>
@@ -2948,13 +2948,13 @@
         <v>47</v>
       </c>
       <c r="J98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K98" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="L98" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1"/>
@@ -2965,16 +2965,16 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="5:6">
@@ -2982,7 +2982,7 @@
         <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="5:7">
@@ -3004,30 +3004,30 @@
         <v>48</v>
       </c>
       <c r="J104" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K104" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="L104" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="105" ht="17.25" spans="7:12">
       <c r="G105" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I105" s="2">
         <v>49</v>
       </c>
       <c r="J105" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K105" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="L105" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="106" spans="5:7">
@@ -3035,7 +3035,7 @@
         <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>118</v>
@@ -3049,18 +3049,18 @@
         <v>50</v>
       </c>
       <c r="J107" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" ht="17.25" spans="2:12">
       <c r="B109" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>19</v>
@@ -3069,36 +3069,36 @@
         <v>51</v>
       </c>
       <c r="J109" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K109" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="K109" s="10" t="s">
+      <c r="L109" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1"/>
     <row r="111" spans="1:1">
       <c r="A111" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" ht="17.25" spans="7:12">
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I112" s="2">
         <v>52</v>
       </c>
       <c r="J112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K112" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="K112" s="10" t="s">
+      <c r="L112" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="113" spans="5:7">
@@ -3106,7 +3106,7 @@
         <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>118</v>
@@ -3121,13 +3121,13 @@
         <v>53</v>
       </c>
       <c r="J114" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K114" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="K114" s="10" t="s">
+      <c r="L114" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="115" spans="5:7">
@@ -3135,7 +3135,7 @@
         <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>118</v>
@@ -3149,35 +3149,35 @@
         <v>54</v>
       </c>
       <c r="J116" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K116" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="K116" s="10" t="s">
+      <c r="L116" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="117" ht="17.25" spans="7:12">
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I117" s="2">
         <v>55</v>
       </c>
       <c r="J117" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K117" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="K117" s="10" t="s">
+      <c r="L117" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="119" ht="17.25" spans="2:12">
       <c r="B119" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>19</v>
@@ -3186,18 +3186,18 @@
         <v>56</v>
       </c>
       <c r="J119" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K119" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="K119" s="10" t="s">
+      <c r="L119" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="120" ht="17.25" spans="2:12">
       <c r="B120" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>19</v>
@@ -3206,13 +3206,13 @@
         <v>57</v>
       </c>
       <c r="J120" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K120" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K120" s="10" t="s">
+      <c r="L120" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="121" ht="17.25" spans="2:12">
@@ -3226,46 +3226,52 @@
         <v>58</v>
       </c>
       <c r="J121" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K121" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K121" s="10" t="s">
+      <c r="L121" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1"/>
     <row r="123" spans="1:1">
       <c r="A123" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="5:7">
       <c r="E124" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7">
+      <c r="E125" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6">
-      <c r="E125" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F125" s="8" t="s">
+      <c r="G125" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="5:7">
+      <c r="E126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="126" s="2" customFormat="1" spans="5:6">
-      <c r="E126" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>210</v>
+      <c r="G126" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" spans="5:7">
@@ -3273,7 +3279,7 @@
         <v>51</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>118</v>
@@ -3284,7 +3290,7 @@
         <v>51</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>118</v>
@@ -3295,7 +3301,7 @@
         <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>118</v>
@@ -3306,7 +3312,7 @@
         <v>51</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>118</v>
@@ -3317,7 +3323,7 @@
         <v>51</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>118</v>
@@ -3328,7 +3334,7 @@
         <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>118</v>
@@ -3342,47 +3348,47 @@
         <v>59</v>
       </c>
       <c r="J133" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K133" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="L133" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="L133" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="134" spans="7:12">
       <c r="G134" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I134" s="2">
         <v>60</v>
       </c>
       <c r="J134" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K134" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="L134" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="L134" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="135" spans="7:12">
       <c r="G135" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I135" s="2">
         <v>61</v>
       </c>
       <c r="J135" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K135" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="L135" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="L135" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="136" spans="5:7">
@@ -3390,7 +3396,7 @@
         <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>118</v>
@@ -3404,30 +3410,30 @@
         <v>62</v>
       </c>
       <c r="J137" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K137" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="L137" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="L137" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="138" spans="7:12">
       <c r="G138" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I138" s="2">
         <v>63</v>
       </c>
       <c r="J138" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K138" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="L138" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="L138" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="139" spans="5:7">
@@ -3435,7 +3441,7 @@
         <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>118</v>
@@ -3449,52 +3455,52 @@
         <v>64</v>
       </c>
       <c r="J140" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K140" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="L140" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="L140" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="141" spans="7:12">
       <c r="G141" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I141" s="2">
         <v>65</v>
       </c>
       <c r="J141" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K141" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="L141" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="L141" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="142" spans="7:12">
       <c r="G142" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I142" s="2">
         <v>66</v>
       </c>
       <c r="J142" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K142" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="L142" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="144" spans="2:12">
       <c r="B144" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>19</v>
@@ -3503,19 +3509,19 @@
         <v>68</v>
       </c>
       <c r="J144" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K144" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="L144" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1"/>
     <row r="146" spans="1:1">
       <c r="A146" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="2:6">
@@ -3526,7 +3532,7 @@
         <v>51</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="5:7">
@@ -3534,7 +3540,7 @@
         <v>51</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>118</v>
@@ -3550,13 +3556,13 @@
         <v>71</v>
       </c>
       <c r="J149" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="L149" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="150" spans="2:7">
@@ -3565,7 +3571,7 @@
         <v>51</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>118</v>
@@ -3581,13 +3587,13 @@
         <v>72</v>
       </c>
       <c r="J151" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K151" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="L151" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="152" spans="2:7">
@@ -3596,7 +3602,7 @@
         <v>51</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>118</v>
@@ -3621,7 +3627,7 @@
         <v>51</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" spans="9:12">
@@ -3629,26 +3635,26 @@
         <v>69</v>
       </c>
       <c r="J157" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K157" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="L157" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" spans="5:6">
       <c r="E158" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" spans="2:12">
       <c r="B160" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>19</v>
@@ -3657,46 +3663,52 @@
         <v>70</v>
       </c>
       <c r="J160" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K160" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="L160" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="L160" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1"/>
     <row r="162" spans="1:1">
       <c r="A162" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="5:7">
       <c r="E163" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="G163" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="E164" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F164" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G163" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F164" s="8" t="s">
+      <c r="G164" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="E165" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F165" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="165" spans="5:6">
-      <c r="E165" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>210</v>
+      <c r="G165" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="5:7">
@@ -3704,7 +3716,7 @@
         <v>51</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>118</v>
@@ -3715,7 +3727,7 @@
         <v>51</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>118</v>
@@ -3726,7 +3738,7 @@
         <v>51</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>118</v>
@@ -3737,7 +3749,7 @@
         <v>51</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>118</v>
@@ -3748,7 +3760,7 @@
         <v>51</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>118</v>
@@ -3759,7 +3771,7 @@
         <v>51</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>118</v>
@@ -3770,7 +3782,7 @@
         <v>51</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>118</v>
@@ -3784,30 +3796,30 @@
         <v>73</v>
       </c>
       <c r="J173" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K173" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="K173" s="2" t="s">
+      <c r="L173" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="L173" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="174" spans="7:12">
       <c r="G174" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I174" s="2">
         <v>74</v>
       </c>
       <c r="J174" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K174" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="L174" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="L174" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="175" spans="5:7">
@@ -3815,7 +3827,7 @@
         <v>51</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>118</v>
@@ -3829,30 +3841,30 @@
         <v>75</v>
       </c>
       <c r="J176" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K176" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="L176" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="L176" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="177" spans="7:12">
       <c r="G177" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I177" s="2">
         <v>76</v>
       </c>
       <c r="J177" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K177" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="L177" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="L177" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="178" spans="5:7">
@@ -3860,7 +3872,7 @@
         <v>51</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>118</v>
@@ -3874,38 +3886,38 @@
         <v>77</v>
       </c>
       <c r="J179" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K179" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="L179" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="L179" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="180" spans="7:12">
       <c r="G180" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I180" s="2">
         <v>78</v>
       </c>
       <c r="J180" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K180" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="L180" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="L180" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="181" spans="5:6">
       <c r="E181" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" spans="5:7">
@@ -3913,7 +3925,7 @@
         <v>51</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>118</v>
@@ -3928,13 +3940,13 @@
         <v>80</v>
       </c>
       <c r="J183" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K183" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="L183" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="184" spans="5:7">
@@ -3942,7 +3954,7 @@
         <v>51</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>118</v>
@@ -3956,52 +3968,52 @@
         <v>81</v>
       </c>
       <c r="J185" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K185" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K185" s="2" t="s">
+      <c r="L185" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="L185" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="186" spans="7:12">
       <c r="G186" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I186" s="2">
         <v>82</v>
       </c>
       <c r="J186" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K186" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="L186" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="L186" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="187" spans="7:12">
       <c r="G187" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I187" s="2">
         <v>83</v>
       </c>
       <c r="J187" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="K187" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="L187" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="L187" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="189" spans="2:12">
       <c r="B189" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>19</v>
@@ -4010,19 +4022,19 @@
         <v>84</v>
       </c>
       <c r="J189" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K189" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="L189" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="L189" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1"/>
     <row r="191" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="2:5">
